--- a/Excel Project.xlsx
+++ b/Excel Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Projects\Data Analysis Projects\Excel Project\Excel-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABEF969-8EA1-41EE-8C44-CBE62DFD751B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572C30DB-DF83-4A0F-AC69-78064AF6E341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="660" windowWidth="41145" windowHeight="20580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6795" yWindow="195" windowWidth="41145" windowHeight="20580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
@@ -636,10 +636,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -43117,10 +43118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84E8EE04-5541-46D2-A313-9B18FAB23D4B}">
-  <dimension ref="A1:R1001"/>
+  <dimension ref="A1:AE1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43139,9 +43140,10 @@
     <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -43185,7 +43187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12496</v>
       </c>
@@ -43230,7 +43232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>24107</v>
       </c>
@@ -43275,7 +43277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>14177</v>
       </c>
@@ -43320,7 +43322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>24381</v>
       </c>
@@ -43365,7 +43367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>25597</v>
       </c>
@@ -43411,7 +43413,7 @@
       </c>
       <c r="R6" s="2"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13507</v>
       </c>
@@ -43456,7 +43458,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>27974</v>
       </c>
@@ -43501,7 +43503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>19364</v>
       </c>
@@ -43546,7 +43548,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22155</v>
       </c>
@@ -43591,7 +43593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>19280</v>
       </c>
@@ -43636,7 +43638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22173</v>
       </c>
@@ -43680,8 +43682,10 @@
       <c r="N12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12697</v>
       </c>
@@ -43725,8 +43729,10 @@
       <c r="N13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11434</v>
       </c>
@@ -43770,8 +43776,9 @@
       <c r="N14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>25323</v>
       </c>
@@ -43815,8 +43822,9 @@
       <c r="N15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>23542</v>
       </c>
@@ -43861,7 +43869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>20870</v>
       </c>
@@ -43906,7 +43914,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>23316</v>
       </c>
@@ -43951,7 +43959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12610</v>
       </c>
@@ -43995,8 +44003,9 @@
       <c r="N19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>27183</v>
       </c>
@@ -44041,7 +44050,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>25940</v>
       </c>
@@ -44086,7 +44095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>25598</v>
       </c>
@@ -44131,7 +44140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21564</v>
       </c>
@@ -44176,7 +44185,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>19193</v>
       </c>
@@ -44221,7 +44230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>26412</v>
       </c>
@@ -44266,7 +44275,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>27184</v>
       </c>
@@ -44311,7 +44320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12590</v>
       </c>
@@ -44356,7 +44365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>17841</v>
       </c>
@@ -44401,7 +44410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18283</v>
       </c>
@@ -44446,7 +44455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>18299</v>
       </c>
@@ -44491,7 +44500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>16466</v>
       </c>
@@ -44536,7 +44545,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19273</v>
       </c>
